--- a/Code/R/PerfSearch_Regression_Imbalanced.xlsx
+++ b/Code/R/PerfSearch_Regression_Imbalanced.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="645" windowWidth="19575" windowHeight="7365" activeTab="4"/>
@@ -13,7 +13,7 @@
     <sheet name="IndependentTest" sheetId="5" r:id="rId4"/>
     <sheet name="ThresholdTuning" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -757,23 +757,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65489152"/>
-        <c:axId val="65495040"/>
+        <c:axId val="143170944"/>
+        <c:axId val="75039872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65489152"/>
+        <c:axId val="143170944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65495040"/>
+        <c:crossAx val="75039872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65495040"/>
+        <c:axId val="75039872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,19 +781,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65489152"/>
+        <c:crossAx val="143170944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3355,23 +3356,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65808640"/>
-        <c:axId val="65807104"/>
+        <c:axId val="37620736"/>
+        <c:axId val="37630720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65808640"/>
+        <c:axId val="37620736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65807104"/>
+        <c:crossAx val="37630720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65807104"/>
+        <c:axId val="37630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3380,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65808640"/>
+        <c:crossAx val="37620736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3392,7 +3393,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3852,7 +3853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8606,7 +8609,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8707,7 +8710,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8811,8 +8814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:XFD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
